--- a/Översikt LILLA EDET.xlsx
+++ b/Översikt LILLA EDET.xlsx
@@ -572,7 +572,7 @@
         <v>43573</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43900</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44615</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45000</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>43518</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43892</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44211</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>44759</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45089</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43328</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43349</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43390</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43411</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43412</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43467</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43474</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43490</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43490</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43530</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43546</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43549</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43564</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43564</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43571</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43579</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43586</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43613</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43634</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43648</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43655</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43691</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43766</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43766</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43773</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43784</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43804</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43810</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43817</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43824</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>43826</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>43840</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43865</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43865</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43866</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43878</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43887</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43892</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43900</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43909</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>43913</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>43917</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>43919</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>43923</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43923</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>43941</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>43950</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43950</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>43956</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         <v>43957</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         <v>43959</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>43976</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>44013</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44046</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44049</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44050</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44112</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44112</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44130</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44139</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44144</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44147</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44153</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44162</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44174</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44195</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44195</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44208</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44209</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44234</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44242</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44251</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44252</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44256</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44280</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>44299</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>44363</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>44363</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44363</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44377</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44397</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44462</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44467</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44473</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44489</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44522</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44581</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44586</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44627</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44637</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44662</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44671</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44671</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44754</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44760</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44760</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44760</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>44812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>44812</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>44859</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>44869</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>44872</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44883</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44889</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44894</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44896</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44902</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44902</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44915</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44917</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44928</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44949</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44952</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44958</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44974</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>45000</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>45000</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>45000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>45001</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>45008</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>45008</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>45044</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>45071</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>45072</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>45072</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>45072</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>45072</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>45092</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>45092</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>45093</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>45095</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>45098</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>45120</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>

--- a/Översikt LILLA EDET.xlsx
+++ b/Översikt LILLA EDET.xlsx
@@ -572,7 +572,7 @@
         <v>43573</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43900</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44615</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45000</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>43518</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43892</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44211</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>44759</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45089</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43328</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43349</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43390</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43411</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43412</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43467</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43474</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43490</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43490</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43530</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43546</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43549</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43564</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43564</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43571</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43579</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43586</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43613</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43634</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43648</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43655</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43691</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43766</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43766</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43773</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43784</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43804</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43810</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43817</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43824</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>43826</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>43840</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43865</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43865</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43866</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43878</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43887</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43892</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43900</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43909</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>43913</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>43917</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>43919</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>43923</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43923</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>43941</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>43950</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43950</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>43956</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         <v>43957</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         <v>43959</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>43976</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>44013</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44046</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44049</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44050</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44112</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44112</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44130</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44139</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44144</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44147</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44153</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44162</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44174</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44195</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44195</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44208</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44209</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44234</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44242</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44251</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44252</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44256</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44280</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>44299</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>44363</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>44363</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44363</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44377</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44397</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44462</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44467</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44473</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44489</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44522</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44581</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44586</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44627</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44637</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44662</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44671</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44671</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44754</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44760</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44760</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44760</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>44812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>44812</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>44859</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>44869</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>44872</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44883</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44889</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44894</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44896</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44902</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44902</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44915</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44917</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44928</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44949</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44952</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44958</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44974</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>45000</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>45000</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>45000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>45001</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>45008</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>45008</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>45044</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>45071</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>45072</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>45072</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>45072</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>45072</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>45092</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>45092</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>45093</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>45095</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>45098</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>45120</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>

--- a/Översikt LILLA EDET.xlsx
+++ b/Översikt LILLA EDET.xlsx
@@ -572,7 +572,7 @@
         <v>43573</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43900</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44615</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45000</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>43518</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43892</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44211</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>44759</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45089</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43328</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43349</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43390</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43411</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43412</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43467</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43474</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43490</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43490</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43530</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43546</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43549</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43564</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43564</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43571</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43579</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43586</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43613</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43634</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43648</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43655</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43691</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43766</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43766</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43773</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43784</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43804</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43810</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43817</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43824</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>43826</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>43840</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43865</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43865</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43866</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43878</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43887</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43892</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43900</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43909</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>43913</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>43917</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>43919</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>43923</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43923</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>43941</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>43950</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43950</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>43956</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         <v>43957</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         <v>43959</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>43976</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>44013</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44046</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44049</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44050</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44112</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44112</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44130</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44139</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44144</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44147</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44153</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44162</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44174</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44195</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44195</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44208</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44209</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44234</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44242</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44251</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44252</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44256</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44280</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>44299</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>44363</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>44363</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44363</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44377</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44397</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44462</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44467</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44473</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44489</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44522</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44581</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44586</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44627</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44637</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44662</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44671</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44671</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44754</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44760</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44760</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44760</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>44812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>44812</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>44859</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>44869</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>44872</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44883</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44889</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44894</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44896</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44902</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44902</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44915</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44917</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44928</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44949</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44952</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44958</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44974</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>45000</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>45000</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>45000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>45001</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>45008</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>45008</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>45044</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>45071</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>45072</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>45072</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>45072</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>45072</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>45092</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>45092</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>45093</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>45095</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>45098</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>45120</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>

--- a/Översikt LILLA EDET.xlsx
+++ b/Översikt LILLA EDET.xlsx
@@ -572,7 +572,7 @@
         <v>43573</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43900</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44615</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45000</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>43518</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43892</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44211</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>44759</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45089</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43328</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43349</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43390</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43411</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43412</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43467</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43474</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43490</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43490</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43530</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43546</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43549</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43564</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43564</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43571</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43579</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43586</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43613</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43634</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43648</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43655</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43691</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43766</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43766</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43773</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43784</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43804</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43810</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43817</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43824</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>43826</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>43840</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43865</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43865</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43866</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43878</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43887</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43892</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43900</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43909</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>43913</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>43917</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>43919</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>43923</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43923</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>43941</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>43950</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43950</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>43956</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         <v>43957</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         <v>43959</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>43976</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>44013</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44046</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44049</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44050</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44112</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44112</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44130</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44139</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44144</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44147</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44153</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44162</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44174</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44195</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44195</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44208</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44209</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44234</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44242</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44251</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44252</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44256</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44280</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>44299</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>44363</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>44363</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44363</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44377</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44397</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44462</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44467</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44473</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44489</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44522</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44581</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44586</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44627</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44637</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44662</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44671</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44671</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44754</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44760</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44760</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44760</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>44812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>44812</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>44859</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>44869</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>44872</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44883</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44889</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44894</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44896</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44902</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44902</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44915</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44917</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44928</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44949</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44952</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44958</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44974</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>45000</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>45000</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>45000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>45001</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>45008</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>45008</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>45044</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>45071</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>45072</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>45072</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>45072</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>45072</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>45092</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>45092</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>45093</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>45095</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>45098</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>45120</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>

--- a/Översikt LILLA EDET.xlsx
+++ b/Översikt LILLA EDET.xlsx
@@ -572,7 +572,7 @@
         <v>43573</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43900</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44615</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45000</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>43518</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43892</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44211</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>44759</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45089</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43328</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43349</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43390</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43411</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43412</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43467</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43474</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43490</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43490</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43530</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43546</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43549</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43564</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43564</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43571</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43579</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43586</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43613</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43634</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43648</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43655</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43691</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43766</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43766</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43773</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43784</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43804</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43810</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43817</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43824</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>43826</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>43840</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43865</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43865</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43866</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43878</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43887</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43892</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43900</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43909</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>43913</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>43917</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>43919</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>43923</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43923</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>43941</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>43950</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43950</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>43956</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         <v>43957</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         <v>43959</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>43976</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>44013</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44046</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44049</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44050</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44112</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44112</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44130</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44139</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44144</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44147</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44153</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44162</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44174</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44195</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44195</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44208</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44209</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44234</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44242</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44251</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44252</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44256</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44280</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>44299</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>44363</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>44363</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44363</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44377</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44397</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44462</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44467</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44473</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44489</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44522</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44581</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44586</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44627</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44637</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44662</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44671</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44671</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44754</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44760</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44760</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44760</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>44812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>44812</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>44859</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>44869</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>44872</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44883</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44889</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44894</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44896</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44902</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44902</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44915</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44917</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44928</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44949</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44952</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44958</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44974</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>45000</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>45000</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>45000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>45001</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>45008</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>45008</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>45044</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>45071</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>45072</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>45072</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>45072</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>45072</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>45092</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>45092</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>45093</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>45095</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>45098</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>45120</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>

--- a/Översikt LILLA EDET.xlsx
+++ b/Översikt LILLA EDET.xlsx
@@ -572,7 +572,7 @@
         <v>43573</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43900</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44615</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45000</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>43518</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43892</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44211</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>44759</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45089</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43328</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43349</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43390</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43411</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43412</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43467</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43474</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43490</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43490</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43530</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43546</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43549</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43564</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43564</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43571</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43579</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43586</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43613</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43634</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43648</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43655</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43691</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43766</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43766</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43773</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43784</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43804</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43810</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43817</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43824</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>43826</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>43840</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43865</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43865</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43866</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43878</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43887</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43892</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43900</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43909</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>43913</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>43917</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>43919</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>43923</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43923</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>43941</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>43950</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43950</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>43956</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         <v>43957</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         <v>43959</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>43976</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>44013</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44046</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44049</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44050</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44112</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44112</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44130</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44139</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44144</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44147</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44153</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44162</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44174</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44195</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44195</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44208</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44209</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44234</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44242</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44251</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44252</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44256</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44280</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>44299</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>44363</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>44363</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44363</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44377</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44397</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44462</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44467</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44473</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44489</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44522</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44581</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44586</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44627</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44637</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44662</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44671</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44671</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44754</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44760</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44760</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44760</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>44812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>44812</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>44859</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>44869</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>44872</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44883</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44889</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44894</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44896</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44902</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44902</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44915</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44917</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44928</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44949</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44952</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44958</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44974</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>45000</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>45000</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>45000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>45001</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>45008</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>45008</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>45044</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>45071</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>45072</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>45072</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>45072</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>45072</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>45092</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>45092</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>45093</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>45095</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>45098</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>45120</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>

--- a/Översikt LILLA EDET.xlsx
+++ b/Översikt LILLA EDET.xlsx
@@ -572,7 +572,7 @@
         <v>43573</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43900</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44615</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45000</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>43518</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43892</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44211</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>44759</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45089</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43328</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43349</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43390</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43411</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43412</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43467</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43474</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43490</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43490</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43530</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43546</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43549</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43564</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43564</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43571</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43579</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43586</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43613</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43634</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43648</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43655</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43691</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43766</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43766</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43773</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43784</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43804</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43810</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43817</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43824</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>43826</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>43840</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43865</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43865</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43866</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43878</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43887</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43892</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43900</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43909</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>43913</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>43917</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>43919</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>43923</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43923</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>43941</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>43950</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43950</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>43956</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         <v>43957</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         <v>43959</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>43976</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>44013</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44046</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44049</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44050</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44112</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44112</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44130</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44139</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44144</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44147</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44153</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44162</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44174</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44195</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44195</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44208</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44209</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44234</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44242</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44251</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44252</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44256</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44280</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>44299</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>44363</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>44363</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44363</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44377</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44397</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44462</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44467</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44473</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44489</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44522</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44581</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44586</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44627</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44637</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44662</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44671</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44671</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44754</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44760</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44760</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44760</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>44812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>44812</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>44859</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>44869</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>44872</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44883</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44889</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44894</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44896</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44902</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44902</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44915</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44917</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44928</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44949</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44952</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44958</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44974</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>45000</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>45000</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>45000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>45001</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>45008</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>45008</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>45044</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>45071</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>45072</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>45072</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>45072</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>45072</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>45092</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>45092</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>45093</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>45095</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>45098</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>45120</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>

--- a/Översikt LILLA EDET.xlsx
+++ b/Översikt LILLA EDET.xlsx
@@ -572,7 +572,7 @@
         <v>43573</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43900</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44615</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45000</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>43518</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43892</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44211</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>44759</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45089</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43328</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43349</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43390</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43411</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43412</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43467</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43474</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43490</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43490</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43530</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43546</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43549</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43564</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43564</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43571</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43579</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43586</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43613</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43634</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43648</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43655</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43691</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43766</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43766</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43773</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43784</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43804</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43810</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43817</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43824</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>43826</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>43840</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43865</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43865</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43866</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43878</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43887</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43892</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43900</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43909</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>43913</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>43917</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>43919</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>43923</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43923</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>43941</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>43950</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43950</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>43956</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         <v>43957</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         <v>43959</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>43976</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>44013</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44046</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44049</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44050</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44112</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44112</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44130</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44139</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44144</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44147</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44153</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44162</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44174</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44195</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44195</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44208</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44209</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44234</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44242</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44251</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44252</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44256</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44280</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>44299</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>44363</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>44363</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44363</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44377</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44397</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44462</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44467</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44473</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44489</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44522</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44581</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44586</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44627</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44637</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44662</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44671</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44671</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44754</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44760</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44760</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44760</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>44812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>44812</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>44859</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>44869</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>44872</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44883</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44889</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44894</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44896</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44902</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44902</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44915</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44917</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44928</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44949</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44952</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44958</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44974</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>45000</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>45000</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>45000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>45001</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>45008</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>45008</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>45044</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>45071</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>45072</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>45072</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>45072</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>45072</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>45092</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>45092</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>45093</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>45095</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>45098</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>45120</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>

--- a/Översikt LILLA EDET.xlsx
+++ b/Översikt LILLA EDET.xlsx
@@ -572,7 +572,7 @@
         <v>43573</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43900</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44615</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45000</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>43518</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43892</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44211</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>44759</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45089</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43328</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43349</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43390</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43411</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43412</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43467</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43474</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43490</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43490</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43530</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43546</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43549</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43564</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43564</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43571</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43579</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43586</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43613</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43634</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43648</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43655</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43691</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43766</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43766</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43773</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43784</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43804</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43810</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43817</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43824</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>43826</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>43840</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43865</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43865</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43866</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43878</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43887</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43892</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43900</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43909</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>43913</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>43917</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>43919</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>43923</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43923</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>43941</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>43950</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43950</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>43956</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         <v>43957</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         <v>43959</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>43976</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>44013</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44046</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44049</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44050</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44112</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44112</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44130</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44139</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44144</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44147</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44153</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44162</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44174</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44195</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44195</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44208</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44209</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44234</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44242</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44251</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44252</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44256</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44280</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>44299</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>44363</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>44363</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44363</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44377</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44397</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44462</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44467</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44473</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44489</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44522</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44581</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44586</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44627</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44637</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44662</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44671</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44671</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44754</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44760</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44760</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44760</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>44812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>44812</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>44859</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>44869</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>44872</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44883</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44889</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44894</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44896</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44902</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44902</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44915</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44917</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44928</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44949</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44952</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44958</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44974</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>45000</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>45000</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>45000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>45001</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>45008</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>45008</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>45044</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>45071</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>45072</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>45072</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>45072</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>45072</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>45092</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>45092</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>45093</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>45095</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>45098</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>45120</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>

--- a/Översikt LILLA EDET.xlsx
+++ b/Översikt LILLA EDET.xlsx
@@ -572,7 +572,7 @@
         <v>43573</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -643,27 +643,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/artfynd/A 21058-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/artfynd/A 21058-2019.xlsx", "A 21058-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/kartor/A 21058-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/kartor/A 21058-2019.png", "A 21058-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/klagomål/A 21058-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/klagomål/A 21058-2019.docx", "A 21058-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/klagomålsmail/A 21058-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/klagomålsmail/A 21058-2019.docx", "A 21058-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/tillsyn/A 21058-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/tillsyn/A 21058-2019.docx", "A 21058-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/tillsynsmail/A 21058-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/tillsynsmail/A 21058-2019.docx", "A 21058-2019")</f>
         <v/>
       </c>
     </row>
@@ -677,7 +677,7 @@
         <v>43900</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -729,27 +729,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/artfynd/A 12972-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/artfynd/A 12972-2020.xlsx", "A 12972-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/kartor/A 12972-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/kartor/A 12972-2020.png", "A 12972-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/klagomål/A 12972-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/klagomål/A 12972-2020.docx", "A 12972-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/klagomålsmail/A 12972-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/klagomålsmail/A 12972-2020.docx", "A 12972-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/tillsyn/A 12972-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/tillsyn/A 12972-2020.docx", "A 12972-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/tillsynsmail/A 12972-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/tillsynsmail/A 12972-2020.docx", "A 12972-2020")</f>
         <v/>
       </c>
     </row>
@@ -763,7 +763,7 @@
         <v>44615</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -815,27 +815,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/artfynd/A 9099-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/artfynd/A 9099-2022.xlsx", "A 9099-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/kartor/A 9099-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/kartor/A 9099-2022.png", "A 9099-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/klagomål/A 9099-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/klagomål/A 9099-2022.docx", "A 9099-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/klagomålsmail/A 9099-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/klagomålsmail/A 9099-2022.docx", "A 9099-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/tillsyn/A 9099-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/tillsyn/A 9099-2022.docx", "A 9099-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/tillsynsmail/A 9099-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/tillsynsmail/A 9099-2022.docx", "A 9099-2022")</f>
         <v/>
       </c>
     </row>
@@ -849,7 +849,7 @@
         <v>45000</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -901,27 +901,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/artfynd/A 12617-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/artfynd/A 12617-2023.xlsx", "A 12617-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/kartor/A 12617-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/kartor/A 12617-2023.png", "A 12617-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/klagomål/A 12617-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/klagomål/A 12617-2023.docx", "A 12617-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/klagomålsmail/A 12617-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/klagomålsmail/A 12617-2023.docx", "A 12617-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/tillsyn/A 12617-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/tillsyn/A 12617-2023.docx", "A 12617-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/tillsynsmail/A 12617-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/tillsynsmail/A 12617-2023.docx", "A 12617-2023")</f>
         <v/>
       </c>
     </row>
@@ -935,7 +935,7 @@
         <v>43518</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -986,27 +986,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/artfynd/A 11650-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/artfynd/A 11650-2019.xlsx", "A 11650-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/kartor/A 11650-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/kartor/A 11650-2019.png", "A 11650-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/klagomål/A 11650-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/klagomål/A 11650-2019.docx", "A 11650-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/klagomålsmail/A 11650-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/klagomålsmail/A 11650-2019.docx", "A 11650-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/tillsyn/A 11650-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/tillsyn/A 11650-2019.docx", "A 11650-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/tillsynsmail/A 11650-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/tillsynsmail/A 11650-2019.docx", "A 11650-2019")</f>
         <v/>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
         <v>43892</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1071,27 +1071,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/artfynd/A 11312-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/artfynd/A 11312-2020.xlsx", "A 11312-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/kartor/A 11312-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/kartor/A 11312-2020.png", "A 11312-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/klagomål/A 11312-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/klagomål/A 11312-2020.docx", "A 11312-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/klagomålsmail/A 11312-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/klagomålsmail/A 11312-2020.docx", "A 11312-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/tillsyn/A 11312-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/tillsyn/A 11312-2020.docx", "A 11312-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/tillsynsmail/A 11312-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/tillsynsmail/A 11312-2020.docx", "A 11312-2020")</f>
         <v/>
       </c>
     </row>
@@ -1105,7 +1105,7 @@
         <v>44211</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1161,27 +1161,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/artfynd/A 2381-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/artfynd/A 2381-2021.xlsx", "A 2381-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/kartor/A 2381-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/kartor/A 2381-2021.png", "A 2381-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/klagomål/A 2381-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/klagomål/A 2381-2021.docx", "A 2381-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/klagomålsmail/A 2381-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/klagomålsmail/A 2381-2021.docx", "A 2381-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/tillsyn/A 2381-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/tillsyn/A 2381-2021.docx", "A 2381-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/tillsynsmail/A 2381-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/tillsynsmail/A 2381-2021.docx", "A 2381-2021")</f>
         <v/>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
         <v>44759</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1246,27 +1246,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/artfynd/A 30273-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/artfynd/A 30273-2022.xlsx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/kartor/A 30273-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/kartor/A 30273-2022.png", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/klagomål/A 30273-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/klagomål/A 30273-2022.docx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/klagomålsmail/A 30273-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/klagomålsmail/A 30273-2022.docx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/tillsyn/A 30273-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/tillsyn/A 30273-2022.docx", "A 30273-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/tillsynsmail/A 30273-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/tillsynsmail/A 30273-2022.docx", "A 30273-2022")</f>
         <v/>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
         <v>45089</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1331,27 +1331,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/artfynd/A 25655-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/artfynd/A 25655-2023.xlsx", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/kartor/A 25655-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/kartor/A 25655-2023.png", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/klagomål/A 25655-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/klagomål/A 25655-2023.docx", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/klagomålsmail/A 25655-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/klagomålsmail/A 25655-2023.docx", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/tillsyn/A 25655-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/tillsyn/A 25655-2023.docx", "A 25655-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/tillsynsmail/A 25655-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LILLA_EDET/tillsynsmail/A 25655-2023.docx", "A 25655-2023")</f>
         <v/>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
         <v>43328</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43349</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43390</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43411</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43412</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43467</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43474</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43490</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43490</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43530</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43546</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43549</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43564</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43564</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43571</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43579</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43586</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43613</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43634</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43648</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43655</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43691</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43766</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43766</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43773</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43784</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43804</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43810</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43817</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43824</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>43826</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>43840</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43865</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43865</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43866</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43878</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43887</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43892</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43900</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43909</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>43913</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>43917</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>43919</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>43923</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43923</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>43941</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>43950</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43950</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>43956</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         <v>43957</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         <v>43959</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>43976</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>44013</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44046</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44049</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44050</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44112</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44112</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44130</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44139</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44144</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44147</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44153</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44162</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44174</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44195</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44195</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44208</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44209</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44234</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44242</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44251</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44252</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44256</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44280</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>44299</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>44363</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>44363</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44363</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44377</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44397</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44462</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44467</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44473</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44489</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44522</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44581</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44586</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44627</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44637</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44662</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44671</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44671</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44754</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44760</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44760</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44760</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>44812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>44812</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>44859</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>44869</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>44872</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44883</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44889</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44894</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44896</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44902</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44902</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44915</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44917</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44928</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44949</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44952</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44958</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44974</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>45000</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>45000</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>45000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>45001</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>45008</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>45008</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>45044</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>45071</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>45072</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>45072</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>45072</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>45072</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>45092</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>45092</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>45093</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>45095</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>45098</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>45120</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>

--- a/Översikt LILLA EDET.xlsx
+++ b/Översikt LILLA EDET.xlsx
@@ -572,7 +572,7 @@
         <v>43573</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43900</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44615</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45000</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>43518</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43892</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44211</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>44759</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45089</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43328</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43349</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43390</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43411</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43412</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43467</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43474</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43490</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43490</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43530</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43546</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43549</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43564</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43564</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43571</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43579</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43586</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43613</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43634</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43648</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43655</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43691</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43766</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43766</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43773</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43784</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43804</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43810</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43817</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43824</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>43826</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>43840</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43865</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43865</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43866</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43878</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43887</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43892</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43900</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43909</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>43913</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>43917</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>43919</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>43923</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43923</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>43941</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>43950</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43950</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>43956</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         <v>43957</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         <v>43959</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>43976</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>44013</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44046</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44049</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44050</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44112</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44112</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44130</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44139</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44144</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44147</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44153</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44162</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44174</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44195</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44195</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44208</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44209</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44234</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44242</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44251</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44252</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44256</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44280</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>44299</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>44363</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>44363</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44363</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44377</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44397</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44462</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44467</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44473</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44489</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44522</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44581</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44586</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44627</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44637</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44662</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44671</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44671</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44754</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44760</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44760</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44760</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>44812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>44812</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>44859</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>44869</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>44872</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44883</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44889</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44894</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44896</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44902</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44902</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44915</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44917</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44928</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44949</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44952</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44958</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44974</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>45000</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>45000</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>45000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>45001</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>45008</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>45008</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>45044</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>45071</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>45072</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>45072</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>45072</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>45072</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>45092</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>45092</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>45093</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>45095</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>45098</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>45120</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>

--- a/Översikt LILLA EDET.xlsx
+++ b/Översikt LILLA EDET.xlsx
@@ -572,7 +572,7 @@
         <v>43573</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43900</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44615</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45000</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>43518</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43892</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44211</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>44759</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45089</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43328</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43349</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43390</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43411</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43412</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43467</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43474</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43490</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43490</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43530</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43546</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43549</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43564</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43564</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43571</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43579</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43586</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43613</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43634</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43648</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43655</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43691</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43766</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43766</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43773</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43784</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43804</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43810</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43817</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43824</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>43826</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>43840</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43865</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43865</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43866</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43878</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43887</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43892</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43900</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43909</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>43913</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>43917</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>43919</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>43923</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43923</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>43941</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>43950</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43950</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>43956</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         <v>43957</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         <v>43959</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>43976</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>44013</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44046</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44049</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44050</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44112</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44112</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44130</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44139</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44144</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44147</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44153</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44162</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44174</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44195</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44195</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44208</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44209</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44234</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44242</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44251</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44252</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44256</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44280</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>44299</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>44363</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>44363</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44363</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44377</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44397</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44462</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44467</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44473</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44489</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44522</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44581</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44586</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44627</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44637</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44662</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44671</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44671</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44754</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44760</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44760</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44760</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>44812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>44812</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>44859</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>44869</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>44872</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44883</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44889</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44894</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44896</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44902</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44902</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44915</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44917</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44928</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44949</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44952</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44958</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44974</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>45000</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>45000</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>45000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>45001</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>45008</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>45008</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>45044</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>45071</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>45072</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>45072</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>45072</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>45072</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>45092</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>45092</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>45093</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>45095</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>45098</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>45120</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>

--- a/Översikt LILLA EDET.xlsx
+++ b/Översikt LILLA EDET.xlsx
@@ -572,7 +572,7 @@
         <v>43573</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43900</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44615</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45000</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>43518</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43892</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44211</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>44759</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45089</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43328</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43349</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43390</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43411</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43412</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43467</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43474</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43490</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43490</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43530</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43546</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43549</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43564</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43564</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43571</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43579</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43586</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43613</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43634</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43648</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43655</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43691</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43766</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43766</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43773</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43784</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43804</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43810</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43817</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43824</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>43826</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>43840</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43865</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43865</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43866</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43878</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43887</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43892</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43900</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43909</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>43913</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>43917</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>43919</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>43923</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43923</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>43941</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>43950</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43950</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>43956</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         <v>43957</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         <v>43959</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>43976</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>44013</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44046</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44049</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44050</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44112</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44112</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44130</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44139</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44144</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44147</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44153</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44162</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44174</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44195</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44195</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44208</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44209</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44234</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44242</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44251</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44252</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44256</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44280</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>44299</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>44363</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>44363</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44363</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44377</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44397</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44462</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44467</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44473</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44489</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44522</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44581</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44586</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44627</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44637</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44662</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44671</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44671</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44754</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44760</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44760</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44760</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>44812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>44812</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>44859</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>44869</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>44872</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44883</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44889</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44894</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44896</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44902</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44902</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44915</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44917</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44928</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44949</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44952</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44958</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44974</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>45000</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>45000</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>45000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>45001</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>45008</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>45008</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>45044</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>45071</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>45072</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>45072</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>45072</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>45072</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>45092</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>45092</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>45093</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>45095</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>45098</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>45120</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>

--- a/Översikt LILLA EDET.xlsx
+++ b/Översikt LILLA EDET.xlsx
@@ -572,7 +572,7 @@
         <v>43573</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43900</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44615</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45000</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>43518</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43892</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44211</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>44759</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45089</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43328</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43349</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43390</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43411</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43412</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43467</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43474</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43490</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43490</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43530</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43546</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43549</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43564</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43564</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43571</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43579</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43586</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43613</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43634</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43648</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43655</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43691</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43766</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43766</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43773</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43784</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43804</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43810</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43817</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43824</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>43826</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>43840</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43865</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43865</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43866</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43878</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43887</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43892</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43900</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43909</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>43913</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>43917</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>43919</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>43923</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43923</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>43941</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>43950</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43950</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>43956</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         <v>43957</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         <v>43959</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>43976</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>44013</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44046</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44049</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44050</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44112</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44112</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44130</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44139</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44144</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44147</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44153</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44162</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44174</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44195</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44195</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44208</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44209</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44234</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44242</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44251</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44252</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44256</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44280</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>44299</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>44363</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>44363</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44363</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44377</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44397</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44462</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44467</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44473</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44489</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44522</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44581</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44586</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44627</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44637</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44662</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44671</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44671</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44754</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44760</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44760</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44760</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>44812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>44812</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>44859</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>44869</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>44872</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44883</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44889</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44894</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44896</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44902</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44902</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44915</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44917</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44928</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44949</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44952</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44958</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44974</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>45000</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>45000</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>45000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>45001</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>45008</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>45008</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>45044</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>45071</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>45072</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>45072</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>45072</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>45072</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>45092</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>45092</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>45093</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>45095</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>45098</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>45120</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>

--- a/Översikt LILLA EDET.xlsx
+++ b/Översikt LILLA EDET.xlsx
@@ -572,7 +572,7 @@
         <v>43573</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43900</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44615</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45000</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>43518</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43892</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44211</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>44759</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45089</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43328</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43349</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43390</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43411</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43412</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43467</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43474</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43490</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43490</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43530</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43546</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43549</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43564</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43564</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43571</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43579</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43586</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43613</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43634</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43648</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43655</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43691</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43766</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43766</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43773</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43784</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43804</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43810</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43817</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43824</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>43826</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>43840</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43865</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43865</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43866</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43878</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43887</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43892</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43900</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43909</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>43913</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>43917</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>43919</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>43923</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43923</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>43941</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>43950</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43950</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>43956</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         <v>43957</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         <v>43959</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>43976</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>44013</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44046</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44049</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44050</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44112</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44112</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44130</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44139</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44144</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44147</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44153</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44162</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44174</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44195</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44195</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44208</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44209</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44234</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44242</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44251</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44252</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44256</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44280</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>44299</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>44363</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>44363</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44363</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44377</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44397</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44462</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44467</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44473</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44489</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44522</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44581</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44586</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44627</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44637</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44662</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44671</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44671</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44754</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44760</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44760</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44760</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>44812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>44812</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>44859</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>44869</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>44872</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44883</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44889</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44894</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44896</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44902</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44902</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44915</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44917</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44928</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44949</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44952</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44958</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44974</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>45000</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>45000</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>45000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>45001</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>45008</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>45008</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>45044</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>45071</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>45072</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>45072</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>45072</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>45072</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>45092</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>45092</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>45093</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>45095</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>45098</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>45120</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>

--- a/Översikt LILLA EDET.xlsx
+++ b/Översikt LILLA EDET.xlsx
@@ -572,7 +572,7 @@
         <v>43573</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43900</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44615</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45000</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>43518</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43892</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44211</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>44759</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45089</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43328</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43349</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43390</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43411</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43412</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43467</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43474</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43490</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43490</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43530</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43546</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43549</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43564</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43564</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43571</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43579</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43586</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43613</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43634</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43648</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43655</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43691</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43766</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43766</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43773</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43784</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43804</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43810</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43817</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43824</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>43826</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>43840</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43865</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43865</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43866</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43878</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43887</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43892</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43900</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43909</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>43913</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>43917</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>43919</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>43923</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43923</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>43941</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>43950</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43950</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>43956</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         <v>43957</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         <v>43959</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>43976</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>44013</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44046</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44049</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44050</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44112</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44112</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44130</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44139</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44144</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44147</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44153</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44162</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44174</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44195</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44195</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44208</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44209</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44234</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44242</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44251</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44252</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44256</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44280</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>44299</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>44363</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>44363</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44363</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44377</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44397</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44462</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44467</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44473</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44489</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44522</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44581</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44586</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44627</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44637</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44662</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44671</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44671</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44754</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44760</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44760</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44760</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>44812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>44812</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>44859</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>44869</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>44872</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44883</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44889</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44894</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44896</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44902</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44902</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44915</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44917</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44928</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44949</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44952</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44958</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44974</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>45000</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>45000</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>45000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>45001</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>45008</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>45008</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>45044</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>45071</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>45072</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>45072</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>45072</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>45072</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>45092</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>45092</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>45093</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>45095</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>45098</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>45120</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>

--- a/Översikt LILLA EDET.xlsx
+++ b/Översikt LILLA EDET.xlsx
@@ -572,7 +572,7 @@
         <v>43573</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43900</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44615</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45000</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>43518</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43892</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44211</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>44759</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45089</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43328</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43349</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43390</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43411</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43412</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43467</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43474</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43490</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43490</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43530</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43546</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43549</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43564</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43564</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43571</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43579</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43586</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43613</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43634</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43648</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43655</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43691</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43766</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43766</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43773</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43784</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43804</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43810</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43817</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43824</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>43826</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>43840</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43865</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43865</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43866</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43878</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43887</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43892</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43900</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43909</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>43913</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>43917</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>43919</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>43923</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43923</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>43941</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>43950</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43950</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>43956</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         <v>43957</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         <v>43959</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>43976</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>44013</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44046</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44049</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44050</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44112</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44112</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44130</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44139</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44144</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44147</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44153</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44162</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44174</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44195</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44195</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44208</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44209</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44234</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44242</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44251</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44252</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44256</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44280</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>44299</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>44363</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>44363</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44363</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44377</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44397</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44462</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44467</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44473</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44489</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44522</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44581</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44586</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44627</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44637</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44662</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44671</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44671</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44754</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44760</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44760</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44760</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>44812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>44812</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>44859</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>44869</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>44872</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44883</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44889</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44894</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44896</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44902</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44902</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44915</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44917</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44928</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44949</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44952</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44958</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44974</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>45000</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>45000</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>45000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>45001</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>45008</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>45008</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>45044</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>45071</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>45072</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>45072</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>45072</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>45072</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>45092</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>45092</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>45093</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>45095</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>45098</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>45120</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>

--- a/Översikt LILLA EDET.xlsx
+++ b/Översikt LILLA EDET.xlsx
@@ -572,7 +572,7 @@
         <v>43573</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>43900</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>44615</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45000</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>43518</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         <v>43892</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>44211</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>44759</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>45089</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>43328</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>43349</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>43390</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>43411</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>43411</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>43412</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>43415</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43419</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43467</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43474</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43490</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43490</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43495</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43530</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43546</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43549</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43564</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43564</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43571</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43579</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43586</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43613</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43634</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43648</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43655</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43691</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43766</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43766</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43773</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>43784</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>43804</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>43810</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>43817</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>43824</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>43826</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>43840</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         <v>43865</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>43865</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>43866</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
         <v>43878</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>43887</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>43892</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         <v>43900</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         <v>43909</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>43913</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>43917</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         <v>43919</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>43923</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>43923</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         <v>43941</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>43950</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43950</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>43956</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         <v>43957</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         <v>43959</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         <v>43976</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>44013</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>44046</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>44049</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>44050</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44112</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44112</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44130</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44139</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44144</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>44147</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>44153</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>44162</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44174</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>44195</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44195</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>44208</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>44209</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         <v>44234</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44242</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         <v>44251</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>44252</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>44256</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44280</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         <v>44299</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>44363</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>44363</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         <v>44363</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         <v>44377</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44397</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>44462</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>44467</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>44473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>44473</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>44489</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>44522</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         <v>44581</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>44586</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>44627</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44637</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44662</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44671</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44671</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44754</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44760</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         <v>44760</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>44760</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         <v>44812</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>44812</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>44859</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         <v>44869</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>44872</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         <v>44883</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>44889</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>44889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         <v>44894</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         <v>44896</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         <v>44902</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>44902</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>44915</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>44917</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>44928</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
         <v>44949</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44952</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44958</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>44960</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44974</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>45000</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>45000</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>45000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>45001</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>45008</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>45008</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>45044</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>45071</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>45072</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>45072</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8996,7 +8996,7 @@
         <v>45072</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>45072</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         <v>45092</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9177,7 +9177,7 @@
         <v>45092</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>45093</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         <v>45095</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>45098</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>45120</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
